--- a/Code/Results/Cases/Case_5_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_75/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019379210512055</v>
+        <v>1.042583576362612</v>
       </c>
       <c r="D2">
-        <v>1.035225278481812</v>
+        <v>1.04621432663889</v>
       </c>
       <c r="E2">
-        <v>1.031609602055597</v>
+        <v>1.050249189732453</v>
       </c>
       <c r="F2">
-        <v>1.038899413448818</v>
+        <v>1.060013728620031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055733328380159</v>
+        <v>1.045043220182748</v>
       </c>
       <c r="J2">
-        <v>1.04099534887872</v>
+        <v>1.047658616253984</v>
       </c>
       <c r="K2">
-        <v>1.046214748905857</v>
+        <v>1.048980389635455</v>
       </c>
       <c r="L2">
-        <v>1.042645452545926</v>
+        <v>1.053003992029427</v>
       </c>
       <c r="M2">
-        <v>1.049842166777286</v>
+        <v>1.062741663782414</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023650757082516</v>
+        <v>1.043482668522081</v>
       </c>
       <c r="D3">
-        <v>1.038463545636254</v>
+        <v>1.046910058106103</v>
       </c>
       <c r="E3">
-        <v>1.035226236626166</v>
+        <v>1.051061187548893</v>
       </c>
       <c r="F3">
-        <v>1.042971358604515</v>
+        <v>1.06093633350908</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057274779177059</v>
+        <v>1.045306150462784</v>
       </c>
       <c r="J3">
-        <v>1.043516804728222</v>
+        <v>1.048204456751717</v>
       </c>
       <c r="K3">
-        <v>1.048626840864308</v>
+        <v>1.049488019752257</v>
       </c>
       <c r="L3">
-        <v>1.04542738968213</v>
+        <v>1.053628399485885</v>
       </c>
       <c r="M3">
-        <v>1.05308242200666</v>
+        <v>1.06347833735385</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026360812945861</v>
+        <v>1.044064908164322</v>
       </c>
       <c r="D4">
-        <v>1.040519939795512</v>
+        <v>1.047360543556813</v>
       </c>
       <c r="E4">
-        <v>1.037526352053638</v>
+        <v>1.051587411089929</v>
       </c>
       <c r="F4">
-        <v>1.045561056106135</v>
+        <v>1.061534299556386</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058242888670558</v>
+        <v>1.045475204905993</v>
       </c>
       <c r="J4">
-        <v>1.045113425878682</v>
+        <v>1.048557468687856</v>
       </c>
       <c r="K4">
-        <v>1.050152735889937</v>
+        <v>1.049816114064151</v>
       </c>
       <c r="L4">
-        <v>1.047192018763274</v>
+        <v>1.05403258557085</v>
       </c>
       <c r="M4">
-        <v>1.055139020738625</v>
+        <v>1.063955360593248</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027487639110382</v>
+        <v>1.044309792222398</v>
       </c>
       <c r="D5">
-        <v>1.041375388732415</v>
+        <v>1.047549998107094</v>
       </c>
       <c r="E5">
-        <v>1.038484028272477</v>
+        <v>1.051808827043238</v>
       </c>
       <c r="F5">
-        <v>1.04663931562516</v>
+        <v>1.061785917271144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058643023192149</v>
+        <v>1.045546016370767</v>
       </c>
       <c r="J5">
-        <v>1.045776518485756</v>
+        <v>1.048705829920034</v>
       </c>
       <c r="K5">
-        <v>1.050786093078345</v>
+        <v>1.049953953708489</v>
       </c>
       <c r="L5">
-        <v>1.047925625924877</v>
+        <v>1.054202540741627</v>
       </c>
       <c r="M5">
-        <v>1.055994312380581</v>
+        <v>1.064155982676811</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027676118326662</v>
+        <v>1.04435091577716</v>
       </c>
       <c r="D6">
-        <v>1.041518498850035</v>
+        <v>1.047581812447898</v>
       </c>
       <c r="E6">
-        <v>1.038644290037007</v>
+        <v>1.051846014945497</v>
       </c>
       <c r="F6">
-        <v>1.046819757370797</v>
+        <v>1.061828178597434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058709809816083</v>
+        <v>1.045557890717695</v>
       </c>
       <c r="J6">
-        <v>1.045887384723907</v>
+        <v>1.048730737754147</v>
       </c>
       <c r="K6">
-        <v>1.05089196615387</v>
+        <v>1.049977092210679</v>
       </c>
       <c r="L6">
-        <v>1.048048325450328</v>
+        <v>1.054231078999643</v>
       </c>
       <c r="M6">
-        <v>1.056137382262457</v>
+        <v>1.064189672747851</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0263759181433</v>
+        <v>1.044068179884426</v>
       </c>
       <c r="D7">
-        <v>1.040531405588999</v>
+        <v>1.047363074782802</v>
       </c>
       <c r="E7">
-        <v>1.037539184687721</v>
+        <v>1.051590368909899</v>
       </c>
       <c r="F7">
-        <v>1.045575504464137</v>
+        <v>1.061537660771891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058248262032321</v>
+        <v>1.045476152110908</v>
       </c>
       <c r="J7">
-        <v>1.045122317783556</v>
+        <v>1.048559451276027</v>
       </c>
       <c r="K7">
-        <v>1.050161230492134</v>
+        <v>1.04981795624399</v>
       </c>
       <c r="L7">
-        <v>1.047201853325224</v>
+        <v>1.054034856382821</v>
       </c>
       <c r="M7">
-        <v>1.055150485366189</v>
+        <v>1.063958040996761</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020834227982178</v>
+        <v>1.042887331333458</v>
       </c>
       <c r="D8">
-        <v>1.036327905693764</v>
+        <v>1.046449389180143</v>
       </c>
       <c r="E8">
-        <v>1.03284034940163</v>
+        <v>1.050523440247473</v>
       </c>
       <c r="F8">
-        <v>1.040285107267787</v>
+        <v>1.060325323602525</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056260436166753</v>
+        <v>1.045132301700033</v>
       </c>
       <c r="J8">
-        <v>1.041854864196978</v>
+        <v>1.047843122918551</v>
       </c>
       <c r="K8">
-        <v>1.047037288797204</v>
+        <v>1.049152022859911</v>
       </c>
       <c r="L8">
-        <v>1.043593119007318</v>
+        <v>1.053214981101254</v>
       </c>
       <c r="M8">
-        <v>1.050945699577702</v>
+        <v>1.06299055356707</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.010635847094222</v>
+        <v>1.040810157012517</v>
       </c>
       <c r="D9">
-        <v>1.028609344746044</v>
+        <v>1.044841728025697</v>
       </c>
       <c r="E9">
-        <v>1.024238951525501</v>
+        <v>1.048649621639499</v>
       </c>
       <c r="F9">
-        <v>1.030600463744457</v>
+        <v>1.058196598536248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05252561120506</v>
+        <v>1.044518160277453</v>
       </c>
       <c r="J9">
-        <v>1.035818536748204</v>
+        <v>1.046579504527579</v>
       </c>
       <c r="K9">
-        <v>1.041254702635119</v>
+        <v>1.047975730173234</v>
       </c>
       <c r="L9">
-        <v>1.036950639276301</v>
+        <v>1.051771479471631</v>
       </c>
       <c r="M9">
-        <v>1.043215839683871</v>
+        <v>1.061288428620516</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003515649946375</v>
+        <v>1.039427890323044</v>
       </c>
       <c r="D10">
-        <v>1.023235155543225</v>
+        <v>1.043771636894353</v>
       </c>
       <c r="E10">
-        <v>1.018267265573738</v>
+        <v>1.047404699969162</v>
       </c>
       <c r="F10">
-        <v>1.02387578245335</v>
+        <v>1.056782630626254</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049868574957659</v>
+        <v>1.04410323872137</v>
       </c>
       <c r="J10">
-        <v>1.031590473595644</v>
+        <v>1.045736244723695</v>
       </c>
       <c r="K10">
-        <v>1.037197193070003</v>
+        <v>1.047189696206422</v>
       </c>
       <c r="L10">
-        <v>1.032314350075506</v>
+        <v>1.050810039722144</v>
       </c>
       <c r="M10">
-        <v>1.037826930429613</v>
+        <v>1.060155582427223</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000349098913016</v>
+        <v>1.038829965811559</v>
       </c>
       <c r="D11">
-        <v>1.020849304759385</v>
+        <v>1.043308693622598</v>
       </c>
       <c r="E11">
-        <v>1.015620041595891</v>
+        <v>1.046866671976006</v>
       </c>
       <c r="F11">
-        <v>1.020894379614027</v>
+        <v>1.056171615685094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048675717935016</v>
+        <v>1.043922278655166</v>
       </c>
       <c r="J11">
-        <v>1.029707362170253</v>
+        <v>1.045370916319928</v>
       </c>
       <c r="K11">
-        <v>1.035388460979283</v>
+        <v>1.046848912434375</v>
       </c>
       <c r="L11">
-        <v>1.030253278585542</v>
+        <v>1.050393952983269</v>
       </c>
       <c r="M11">
-        <v>1.035432730323209</v>
+        <v>1.059665515935599</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9991597003419587</v>
+        <v>1.038607962289305</v>
       </c>
       <c r="D12">
-        <v>1.019953843091699</v>
+        <v>1.043136799469529</v>
       </c>
       <c r="E12">
-        <v>1.014627047396904</v>
+        <v>1.046666980897544</v>
       </c>
       <c r="F12">
-        <v>1.019775961390179</v>
+        <v>1.055944845769729</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048226030372963</v>
+        <v>1.043854867942811</v>
       </c>
       <c r="J12">
-        <v>1.028999665783686</v>
+        <v>1.045235189396137</v>
       </c>
       <c r="K12">
-        <v>1.034708489914622</v>
+        <v>1.04672226727047</v>
       </c>
       <c r="L12">
-        <v>1.029479280944353</v>
+        <v>1.050239434545499</v>
       </c>
       <c r="M12">
-        <v>1.034533845588928</v>
+        <v>1.059483554378921</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994154388342792</v>
+        <v>1.038655578603892</v>
       </c>
       <c r="D13">
-        <v>1.020146348259957</v>
+        <v>1.043173668447118</v>
       </c>
       <c r="E13">
-        <v>1.014840494655774</v>
+        <v>1.046709808206372</v>
       </c>
       <c r="F13">
-        <v>1.020016372378741</v>
+        <v>1.055993480142945</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048322793000831</v>
+        <v>1.043869336541535</v>
       </c>
       <c r="J13">
-        <v>1.029151847338841</v>
+        <v>1.045264304517972</v>
       </c>
       <c r="K13">
-        <v>1.034854719575808</v>
+        <v>1.046749435916844</v>
       </c>
       <c r="L13">
-        <v>1.029645693669043</v>
+        <v>1.050272577685293</v>
       </c>
       <c r="M13">
-        <v>1.034727099997945</v>
+        <v>1.05952258251796</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000251056124318</v>
+        <v>1.038811613042006</v>
       </c>
       <c r="D14">
-        <v>1.020775476833417</v>
+        <v>1.043294483492355</v>
       </c>
       <c r="E14">
-        <v>1.015538161006811</v>
+        <v>1.046850162248286</v>
       </c>
       <c r="F14">
-        <v>1.020802158301705</v>
+        <v>1.056152866964048</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048638682886381</v>
+        <v>1.043916710420093</v>
       </c>
       <c r="J14">
-        <v>1.029649033732335</v>
+        <v>1.045359697648773</v>
       </c>
       <c r="K14">
-        <v>1.035332422226316</v>
+        <v>1.046838445182428</v>
       </c>
       <c r="L14">
-        <v>1.030189473839446</v>
+        <v>1.050381179726135</v>
       </c>
       <c r="M14">
-        <v>1.035358626160132</v>
+        <v>1.059650473481272</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000764137783571</v>
+        <v>1.038907763271138</v>
       </c>
       <c r="D15">
-        <v>1.021161864997709</v>
+        <v>1.043368930100486</v>
       </c>
       <c r="E15">
-        <v>1.015966716845184</v>
+        <v>1.046936659785913</v>
       </c>
       <c r="F15">
-        <v>1.021284833601925</v>
+        <v>1.056251095435427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048832429911326</v>
+        <v>1.043945873331855</v>
       </c>
       <c r="J15">
-        <v>1.029954265550257</v>
+        <v>1.045418468867748</v>
       </c>
       <c r="K15">
-        <v>1.03562566295386</v>
+        <v>1.046893278426584</v>
       </c>
       <c r="L15">
-        <v>1.030523386660872</v>
+        <v>1.050448097662179</v>
       </c>
       <c r="M15">
-        <v>1.035746448144135</v>
+        <v>1.059729280767508</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003723989627695</v>
+        <v>1.039467585476067</v>
       </c>
       <c r="D16">
-        <v>1.023392222873721</v>
+        <v>1.043802369749776</v>
       </c>
       <c r="E16">
-        <v>1.018441619430572</v>
+        <v>1.047440428974294</v>
       </c>
       <c r="F16">
-        <v>1.024072137216547</v>
+        <v>1.05682320798735</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049946828210958</v>
+        <v>1.044115221190441</v>
       </c>
       <c r="J16">
-        <v>1.031714316493621</v>
+        <v>1.045760486425632</v>
       </c>
       <c r="K16">
-        <v>1.037316112309727</v>
+        <v>1.047212304022937</v>
       </c>
       <c r="L16">
-        <v>1.032449976779789</v>
+        <v>1.050837658829566</v>
       </c>
       <c r="M16">
-        <v>1.03798450816705</v>
+        <v>1.060188116403634</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005557828513073</v>
+        <v>1.039818910271734</v>
       </c>
       <c r="D17">
-        <v>1.024775240550349</v>
+        <v>1.044074366691559</v>
       </c>
       <c r="E17">
-        <v>1.019977290067829</v>
+        <v>1.047756707267905</v>
       </c>
       <c r="F17">
-        <v>1.025801542111547</v>
+        <v>1.057182412834019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050634355813471</v>
+        <v>1.044221102043436</v>
       </c>
       <c r="J17">
-        <v>1.032804090344909</v>
+        <v>1.045974974522639</v>
       </c>
       <c r="K17">
-        <v>1.038362380821797</v>
+        <v>1.047412307097723</v>
       </c>
       <c r="L17">
-        <v>1.033643882834382</v>
+        <v>1.051082080810931</v>
       </c>
       <c r="M17">
-        <v>1.039371811254461</v>
+        <v>1.060476056882983</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006619470096156</v>
+        <v>1.040023890478557</v>
       </c>
       <c r="D18">
-        <v>1.025576288407512</v>
+        <v>1.044233057677641</v>
       </c>
       <c r="E18">
-        <v>1.020867125238095</v>
+        <v>1.047941286448838</v>
       </c>
       <c r="F18">
-        <v>1.026803600322179</v>
+        <v>1.05739205072127</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051031310987044</v>
+        <v>1.044282735435164</v>
       </c>
       <c r="J18">
-        <v>1.033434713391249</v>
+        <v>1.046100063267775</v>
       </c>
       <c r="K18">
-        <v>1.038967677644074</v>
+        <v>1.047528924343621</v>
       </c>
       <c r="L18">
-        <v>1.034335130443081</v>
+        <v>1.051224669454941</v>
       </c>
       <c r="M18">
-        <v>1.040175169897937</v>
+        <v>1.060644052313079</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.006980123939633</v>
+        <v>1.040093793300506</v>
       </c>
       <c r="D19">
-        <v>1.025848480141116</v>
+        <v>1.044287173903144</v>
       </c>
       <c r="E19">
-        <v>1.021169549726844</v>
+        <v>1.048004239993497</v>
       </c>
       <c r="F19">
-        <v>1.027144160030281</v>
+        <v>1.057463552091932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051165979639512</v>
+        <v>1.044303729586471</v>
       </c>
       <c r="J19">
-        <v>1.033648898096606</v>
+        <v>1.046142712121568</v>
       </c>
       <c r="K19">
-        <v>1.039173234662382</v>
+        <v>1.047568680795692</v>
       </c>
       <c r="L19">
-        <v>1.034569967794326</v>
+        <v>1.051273292097493</v>
       </c>
       <c r="M19">
-        <v>1.040448118251231</v>
+        <v>1.060701341940938</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005361907658548</v>
+        <v>1.03978121039701</v>
       </c>
       <c r="D20">
-        <v>1.024627442455497</v>
+        <v>1.044045179869206</v>
       </c>
       <c r="E20">
-        <v>1.019813140219404</v>
+        <v>1.047722763307412</v>
       </c>
       <c r="F20">
-        <v>1.025616687493883</v>
+        <v>1.057143861152972</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050561013111934</v>
+        <v>1.044209754966723</v>
       </c>
       <c r="J20">
-        <v>1.03268769008608</v>
+        <v>1.045951963889022</v>
       </c>
       <c r="K20">
-        <v>1.038250643006082</v>
+        <v>1.047390852910528</v>
       </c>
       <c r="L20">
-        <v>1.033516322102878</v>
+        <v>1.051055854419472</v>
       </c>
       <c r="M20">
-        <v>1.039223573080831</v>
+        <v>1.06044515896964</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000005357594313</v>
+        <v>1.038765662232395</v>
       </c>
       <c r="D21">
-        <v>1.020590472994456</v>
+        <v>1.04325890470528</v>
       </c>
       <c r="E21">
-        <v>1.015332987240043</v>
+        <v>1.046808827149426</v>
       </c>
       <c r="F21">
-        <v>1.020571071888674</v>
+        <v>1.056105926308918</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048545845638018</v>
+        <v>1.043902765345991</v>
       </c>
       <c r="J21">
-        <v>1.029502854810869</v>
+        <v>1.045331607505189</v>
       </c>
       <c r="K21">
-        <v>1.035191977937383</v>
+        <v>1.046812235899769</v>
       </c>
       <c r="L21">
-        <v>1.030029579864831</v>
+        <v>1.050349198164339</v>
       </c>
       <c r="M21">
-        <v>1.035172925382899</v>
+        <v>1.059612810810604</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9965607474606084</v>
+        <v>1.038127681205112</v>
       </c>
       <c r="D22">
-        <v>1.01799852334661</v>
+        <v>1.042764910962246</v>
       </c>
       <c r="E22">
-        <v>1.012459778780421</v>
+        <v>1.046235105281014</v>
       </c>
       <c r="F22">
-        <v>1.017334801171665</v>
+        <v>1.055454425348613</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047240468219917</v>
+        <v>1.043708626194142</v>
       </c>
       <c r="J22">
-        <v>1.027452638416644</v>
+        <v>1.044941405153422</v>
       </c>
       <c r="K22">
-        <v>1.033221663941158</v>
+        <v>1.046448073051969</v>
       </c>
       <c r="L22">
-        <v>1.027788381116366</v>
+        <v>1.049905096705745</v>
       </c>
       <c r="M22">
-        <v>1.032570500358649</v>
+        <v>1.059089891695782</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9983943066447807</v>
+        <v>1.03846583595878</v>
       </c>
       <c r="D23">
-        <v>1.019377805942147</v>
+        <v>1.043026750945305</v>
       </c>
       <c r="E23">
-        <v>1.013988426489618</v>
+        <v>1.046539159702276</v>
       </c>
       <c r="F23">
-        <v>1.019056655181514</v>
+        <v>1.055799694503093</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047936196034964</v>
+        <v>1.043811649217287</v>
       </c>
       <c r="J23">
-        <v>1.028544153603752</v>
+        <v>1.045148273584068</v>
       </c>
       <c r="K23">
-        <v>1.034270760536832</v>
+        <v>1.046641156748115</v>
       </c>
       <c r="L23">
-        <v>1.028981256483973</v>
+        <v>1.050140503803392</v>
       </c>
       <c r="M23">
-        <v>1.033955522737875</v>
+        <v>1.059367061586836</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005450460551059</v>
+        <v>1.039798245167297</v>
       </c>
       <c r="D24">
-        <v>1.02469424346104</v>
+        <v>1.04405836801518</v>
       </c>
       <c r="E24">
-        <v>1.019887330655595</v>
+        <v>1.047738100815093</v>
       </c>
       <c r="F24">
-        <v>1.025700235925621</v>
+        <v>1.05716128062828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050594166075358</v>
+        <v>1.044214882608919</v>
       </c>
       <c r="J24">
-        <v>1.032740301850852</v>
+        <v>1.045962361461246</v>
       </c>
       <c r="K24">
-        <v>1.038301147861224</v>
+        <v>1.047400547261541</v>
       </c>
       <c r="L24">
-        <v>1.033573977155785</v>
+        <v>1.051067704930761</v>
       </c>
       <c r="M24">
-        <v>1.039290573520642</v>
+        <v>1.06045912026897</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013326688093059</v>
+        <v>1.041346718332811</v>
       </c>
       <c r="D25">
-        <v>1.030643582409687</v>
+        <v>1.045257056903235</v>
       </c>
       <c r="E25">
-        <v>1.026502828826063</v>
+        <v>1.049133299076048</v>
       </c>
       <c r="F25">
-        <v>1.03314956054519</v>
+        <v>1.058746018484095</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053519755548514</v>
+        <v>1.044677901947069</v>
       </c>
       <c r="J25">
-        <v>1.037413731482774</v>
+        <v>1.046906334271388</v>
       </c>
       <c r="K25">
-        <v>1.042784116791577</v>
+        <v>1.048280158963487</v>
       </c>
       <c r="L25">
-        <v>1.038703196137828</v>
+        <v>1.052144506836678</v>
       </c>
       <c r="M25">
-        <v>1.04525417898093</v>
+        <v>1.061728139079466</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_75/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_75/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042583576362612</v>
+        <v>1.019379210512054</v>
       </c>
       <c r="D2">
-        <v>1.04621432663889</v>
+        <v>1.035225278481811</v>
       </c>
       <c r="E2">
-        <v>1.050249189732453</v>
+        <v>1.031609602055596</v>
       </c>
       <c r="F2">
-        <v>1.060013728620031</v>
+        <v>1.038899413448818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045043220182748</v>
+        <v>1.055733328380158</v>
       </c>
       <c r="J2">
-        <v>1.047658616253984</v>
+        <v>1.04099534887872</v>
       </c>
       <c r="K2">
-        <v>1.048980389635455</v>
+        <v>1.046214748905856</v>
       </c>
       <c r="L2">
-        <v>1.053003992029427</v>
+        <v>1.042645452545925</v>
       </c>
       <c r="M2">
-        <v>1.062741663782414</v>
+        <v>1.049842166777285</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043482668522081</v>
+        <v>1.023650757082516</v>
       </c>
       <c r="D3">
-        <v>1.046910058106103</v>
+        <v>1.038463545636254</v>
       </c>
       <c r="E3">
-        <v>1.051061187548893</v>
+        <v>1.035226236626166</v>
       </c>
       <c r="F3">
-        <v>1.06093633350908</v>
+        <v>1.042971358604515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045306150462784</v>
+        <v>1.057274779177059</v>
       </c>
       <c r="J3">
-        <v>1.048204456751717</v>
+        <v>1.043516804728222</v>
       </c>
       <c r="K3">
-        <v>1.049488019752257</v>
+        <v>1.048626840864308</v>
       </c>
       <c r="L3">
-        <v>1.053628399485885</v>
+        <v>1.04542738968213</v>
       </c>
       <c r="M3">
-        <v>1.06347833735385</v>
+        <v>1.05308242200666</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044064908164322</v>
+        <v>1.026360812945861</v>
       </c>
       <c r="D4">
-        <v>1.047360543556813</v>
+        <v>1.040519939795512</v>
       </c>
       <c r="E4">
-        <v>1.051587411089929</v>
+        <v>1.037526352053637</v>
       </c>
       <c r="F4">
-        <v>1.061534299556386</v>
+        <v>1.045561056106135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045475204905993</v>
+        <v>1.058242888670558</v>
       </c>
       <c r="J4">
-        <v>1.048557468687856</v>
+        <v>1.045113425878682</v>
       </c>
       <c r="K4">
-        <v>1.049816114064151</v>
+        <v>1.050152735889937</v>
       </c>
       <c r="L4">
-        <v>1.05403258557085</v>
+        <v>1.047192018763273</v>
       </c>
       <c r="M4">
-        <v>1.063955360593248</v>
+        <v>1.055139020738625</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044309792222398</v>
+        <v>1.027487639110381</v>
       </c>
       <c r="D5">
-        <v>1.047549998107094</v>
+        <v>1.041375388732415</v>
       </c>
       <c r="E5">
-        <v>1.051808827043238</v>
+        <v>1.038484028272477</v>
       </c>
       <c r="F5">
-        <v>1.061785917271144</v>
+        <v>1.046639315625159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045546016370767</v>
+        <v>1.058643023192148</v>
       </c>
       <c r="J5">
-        <v>1.048705829920034</v>
+        <v>1.045776518485755</v>
       </c>
       <c r="K5">
-        <v>1.049953953708489</v>
+        <v>1.050786093078345</v>
       </c>
       <c r="L5">
-        <v>1.054202540741627</v>
+        <v>1.047925625924876</v>
       </c>
       <c r="M5">
-        <v>1.064155982676811</v>
+        <v>1.05599431238058</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04435091577716</v>
+        <v>1.02767611832666</v>
       </c>
       <c r="D6">
-        <v>1.047581812447898</v>
+        <v>1.041518498850034</v>
       </c>
       <c r="E6">
-        <v>1.051846014945497</v>
+        <v>1.038644290037005</v>
       </c>
       <c r="F6">
-        <v>1.061828178597434</v>
+        <v>1.046819757370796</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045557890717695</v>
+        <v>1.058709809816082</v>
       </c>
       <c r="J6">
-        <v>1.048730737754147</v>
+        <v>1.045887384723906</v>
       </c>
       <c r="K6">
-        <v>1.049977092210679</v>
+        <v>1.050891966153869</v>
       </c>
       <c r="L6">
-        <v>1.054231078999643</v>
+        <v>1.048048325450327</v>
       </c>
       <c r="M6">
-        <v>1.064189672747851</v>
+        <v>1.056137382262456</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044068179884426</v>
+        <v>1.026375918143299</v>
       </c>
       <c r="D7">
-        <v>1.047363074782802</v>
+        <v>1.040531405588998</v>
       </c>
       <c r="E7">
-        <v>1.051590368909899</v>
+        <v>1.03753918468772</v>
       </c>
       <c r="F7">
-        <v>1.061537660771891</v>
+        <v>1.045575504464136</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045476152110908</v>
+        <v>1.058248262032321</v>
       </c>
       <c r="J7">
-        <v>1.048559451276027</v>
+        <v>1.045122317783555</v>
       </c>
       <c r="K7">
-        <v>1.04981795624399</v>
+        <v>1.050161230492133</v>
       </c>
       <c r="L7">
-        <v>1.054034856382821</v>
+        <v>1.047201853325223</v>
       </c>
       <c r="M7">
-        <v>1.063958040996761</v>
+        <v>1.055150485366188</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042887331333458</v>
+        <v>1.020834227982176</v>
       </c>
       <c r="D8">
-        <v>1.046449389180143</v>
+        <v>1.036327905693763</v>
       </c>
       <c r="E8">
-        <v>1.050523440247473</v>
+        <v>1.032840349401628</v>
       </c>
       <c r="F8">
-        <v>1.060325323602525</v>
+        <v>1.040285107267786</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045132301700033</v>
+        <v>1.056260436166753</v>
       </c>
       <c r="J8">
-        <v>1.047843122918551</v>
+        <v>1.041854864196977</v>
       </c>
       <c r="K8">
-        <v>1.049152022859911</v>
+        <v>1.047037288797203</v>
       </c>
       <c r="L8">
-        <v>1.053214981101254</v>
+        <v>1.043593119007316</v>
       </c>
       <c r="M8">
-        <v>1.06299055356707</v>
+        <v>1.0509456995777</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040810157012517</v>
+        <v>1.010635847094222</v>
       </c>
       <c r="D9">
-        <v>1.044841728025697</v>
+        <v>1.028609344746043</v>
       </c>
       <c r="E9">
-        <v>1.048649621639499</v>
+        <v>1.024238951525501</v>
       </c>
       <c r="F9">
-        <v>1.058196598536248</v>
+        <v>1.030600463744457</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044518160277453</v>
+        <v>1.052525611205059</v>
       </c>
       <c r="J9">
-        <v>1.046579504527579</v>
+        <v>1.035818536748203</v>
       </c>
       <c r="K9">
-        <v>1.047975730173234</v>
+        <v>1.041254702635118</v>
       </c>
       <c r="L9">
-        <v>1.051771479471631</v>
+        <v>1.0369506392763</v>
       </c>
       <c r="M9">
-        <v>1.061288428620516</v>
+        <v>1.04321583968387</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039427890323044</v>
+        <v>1.003515649946373</v>
       </c>
       <c r="D10">
-        <v>1.043771636894353</v>
+        <v>1.023235155543224</v>
       </c>
       <c r="E10">
-        <v>1.047404699969162</v>
+        <v>1.018267265573736</v>
       </c>
       <c r="F10">
-        <v>1.056782630626254</v>
+        <v>1.023875782453348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04410323872137</v>
+        <v>1.049868574957658</v>
       </c>
       <c r="J10">
-        <v>1.045736244723695</v>
+        <v>1.031590473595642</v>
       </c>
       <c r="K10">
-        <v>1.047189696206422</v>
+        <v>1.037197193070001</v>
       </c>
       <c r="L10">
-        <v>1.050810039722144</v>
+        <v>1.032314350075504</v>
       </c>
       <c r="M10">
-        <v>1.060155582427223</v>
+        <v>1.037826930429611</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038829965811559</v>
+        <v>1.000349098913015</v>
       </c>
       <c r="D11">
-        <v>1.043308693622598</v>
+        <v>1.020849304759385</v>
       </c>
       <c r="E11">
-        <v>1.046866671976006</v>
+        <v>1.015620041595891</v>
       </c>
       <c r="F11">
-        <v>1.056171615685094</v>
+        <v>1.020894379614026</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043922278655166</v>
+        <v>1.048675717935015</v>
       </c>
       <c r="J11">
-        <v>1.045370916319928</v>
+        <v>1.029707362170252</v>
       </c>
       <c r="K11">
-        <v>1.046848912434375</v>
+        <v>1.035388460979283</v>
       </c>
       <c r="L11">
-        <v>1.050393952983269</v>
+        <v>1.030253278585541</v>
       </c>
       <c r="M11">
-        <v>1.059665515935599</v>
+        <v>1.035432730323209</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038607962289305</v>
+        <v>0.9991597003419567</v>
       </c>
       <c r="D12">
-        <v>1.043136799469529</v>
+        <v>1.019953843091697</v>
       </c>
       <c r="E12">
-        <v>1.046666980897544</v>
+        <v>1.014627047396901</v>
       </c>
       <c r="F12">
-        <v>1.055944845769729</v>
+        <v>1.019775961390177</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043854867942811</v>
+        <v>1.048226030372962</v>
       </c>
       <c r="J12">
-        <v>1.045235189396137</v>
+        <v>1.028999665783684</v>
       </c>
       <c r="K12">
-        <v>1.04672226727047</v>
+        <v>1.03470848991462</v>
       </c>
       <c r="L12">
-        <v>1.050239434545499</v>
+        <v>1.029479280944351</v>
       </c>
       <c r="M12">
-        <v>1.059483554378921</v>
+        <v>1.034533845588926</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038655578603892</v>
+        <v>0.9994154388342791</v>
       </c>
       <c r="D13">
-        <v>1.043173668447118</v>
+        <v>1.020146348259957</v>
       </c>
       <c r="E13">
-        <v>1.046709808206372</v>
+        <v>1.014840494655773</v>
       </c>
       <c r="F13">
-        <v>1.055993480142945</v>
+        <v>1.02001637237874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043869336541535</v>
+        <v>1.048322793000831</v>
       </c>
       <c r="J13">
-        <v>1.045264304517972</v>
+        <v>1.029151847338841</v>
       </c>
       <c r="K13">
-        <v>1.046749435916844</v>
+        <v>1.034854719575808</v>
       </c>
       <c r="L13">
-        <v>1.050272577685293</v>
+        <v>1.029645693669043</v>
       </c>
       <c r="M13">
-        <v>1.05952258251796</v>
+        <v>1.034727099997944</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038811613042006</v>
+        <v>1.000251056124318</v>
       </c>
       <c r="D14">
-        <v>1.043294483492355</v>
+        <v>1.020775476833418</v>
       </c>
       <c r="E14">
-        <v>1.046850162248286</v>
+        <v>1.015538161006811</v>
       </c>
       <c r="F14">
-        <v>1.056152866964048</v>
+        <v>1.020802158301705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043916710420093</v>
+        <v>1.048638682886381</v>
       </c>
       <c r="J14">
-        <v>1.045359697648773</v>
+        <v>1.029649033732335</v>
       </c>
       <c r="K14">
-        <v>1.046838445182428</v>
+        <v>1.035332422226316</v>
       </c>
       <c r="L14">
-        <v>1.050381179726135</v>
+        <v>1.030189473839446</v>
       </c>
       <c r="M14">
-        <v>1.059650473481272</v>
+        <v>1.035358626160132</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038907763271138</v>
+        <v>1.000764137783571</v>
       </c>
       <c r="D15">
-        <v>1.043368930100486</v>
+        <v>1.021161864997709</v>
       </c>
       <c r="E15">
-        <v>1.046936659785913</v>
+        <v>1.015966716845184</v>
       </c>
       <c r="F15">
-        <v>1.056251095435427</v>
+        <v>1.021284833601925</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043945873331855</v>
+        <v>1.048832429911326</v>
       </c>
       <c r="J15">
-        <v>1.045418468867748</v>
+        <v>1.029954265550257</v>
       </c>
       <c r="K15">
-        <v>1.046893278426584</v>
+        <v>1.03562566295386</v>
       </c>
       <c r="L15">
-        <v>1.050448097662179</v>
+        <v>1.030523386660871</v>
       </c>
       <c r="M15">
-        <v>1.059729280767508</v>
+        <v>1.035746448144135</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039467585476067</v>
+        <v>1.003723989627695</v>
       </c>
       <c r="D16">
-        <v>1.043802369749776</v>
+        <v>1.023392222873721</v>
       </c>
       <c r="E16">
-        <v>1.047440428974294</v>
+        <v>1.018441619430571</v>
       </c>
       <c r="F16">
-        <v>1.05682320798735</v>
+        <v>1.024072137216547</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044115221190441</v>
+        <v>1.049946828210958</v>
       </c>
       <c r="J16">
-        <v>1.045760486425632</v>
+        <v>1.03171431649362</v>
       </c>
       <c r="K16">
-        <v>1.047212304022937</v>
+        <v>1.037316112309727</v>
       </c>
       <c r="L16">
-        <v>1.050837658829566</v>
+        <v>1.032449976779789</v>
       </c>
       <c r="M16">
-        <v>1.060188116403634</v>
+        <v>1.037984508167049</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039818910271734</v>
+        <v>1.005557828513071</v>
       </c>
       <c r="D17">
-        <v>1.044074366691559</v>
+        <v>1.024775240550348</v>
       </c>
       <c r="E17">
-        <v>1.047756707267905</v>
+        <v>1.019977290067828</v>
       </c>
       <c r="F17">
-        <v>1.057182412834019</v>
+        <v>1.025801542111546</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044221102043436</v>
+        <v>1.05063435581347</v>
       </c>
       <c r="J17">
-        <v>1.045974974522639</v>
+        <v>1.032804090344907</v>
       </c>
       <c r="K17">
-        <v>1.047412307097723</v>
+        <v>1.038362380821796</v>
       </c>
       <c r="L17">
-        <v>1.051082080810931</v>
+        <v>1.033643882834381</v>
       </c>
       <c r="M17">
-        <v>1.060476056882983</v>
+        <v>1.03937181125446</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040023890478557</v>
+        <v>1.006619470096156</v>
       </c>
       <c r="D18">
-        <v>1.044233057677641</v>
+        <v>1.025576288407511</v>
       </c>
       <c r="E18">
-        <v>1.047941286448838</v>
+        <v>1.020867125238095</v>
       </c>
       <c r="F18">
-        <v>1.05739205072127</v>
+        <v>1.026803600322179</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044282735435164</v>
+        <v>1.051031310987044</v>
       </c>
       <c r="J18">
-        <v>1.046100063267775</v>
+        <v>1.033434713391249</v>
       </c>
       <c r="K18">
-        <v>1.047528924343621</v>
+        <v>1.038967677644073</v>
       </c>
       <c r="L18">
-        <v>1.051224669454941</v>
+        <v>1.034335130443081</v>
       </c>
       <c r="M18">
-        <v>1.060644052313079</v>
+        <v>1.040175169897937</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040093793300506</v>
+        <v>1.006980123939633</v>
       </c>
       <c r="D19">
-        <v>1.044287173903144</v>
+        <v>1.025848480141116</v>
       </c>
       <c r="E19">
-        <v>1.048004239993497</v>
+        <v>1.021169549726845</v>
       </c>
       <c r="F19">
-        <v>1.057463552091932</v>
+        <v>1.027144160030281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044303729586471</v>
+        <v>1.051165979639512</v>
       </c>
       <c r="J19">
-        <v>1.046142712121568</v>
+        <v>1.033648898096607</v>
       </c>
       <c r="K19">
-        <v>1.047568680795692</v>
+        <v>1.039173234662382</v>
       </c>
       <c r="L19">
-        <v>1.051273292097493</v>
+        <v>1.034569967794326</v>
       </c>
       <c r="M19">
-        <v>1.060701341940938</v>
+        <v>1.040448118251231</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03978121039701</v>
+        <v>1.005361907658547</v>
       </c>
       <c r="D20">
-        <v>1.044045179869206</v>
+        <v>1.024627442455497</v>
       </c>
       <c r="E20">
-        <v>1.047722763307412</v>
+        <v>1.019813140219403</v>
       </c>
       <c r="F20">
-        <v>1.057143861152972</v>
+        <v>1.025616687493881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044209754966723</v>
+        <v>1.050561013111934</v>
       </c>
       <c r="J20">
-        <v>1.045951963889022</v>
+        <v>1.03268769008608</v>
       </c>
       <c r="K20">
-        <v>1.047390852910528</v>
+        <v>1.038250643006082</v>
       </c>
       <c r="L20">
-        <v>1.051055854419472</v>
+        <v>1.033516322102877</v>
       </c>
       <c r="M20">
-        <v>1.06044515896964</v>
+        <v>1.03922357308083</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038765662232395</v>
+        <v>1.000005357594314</v>
       </c>
       <c r="D21">
-        <v>1.04325890470528</v>
+        <v>1.020590472994457</v>
       </c>
       <c r="E21">
-        <v>1.046808827149426</v>
+        <v>1.015332987240044</v>
       </c>
       <c r="F21">
-        <v>1.056105926308918</v>
+        <v>1.020571071888675</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043902765345991</v>
+        <v>1.048545845638018</v>
       </c>
       <c r="J21">
-        <v>1.045331607505189</v>
+        <v>1.029502854810869</v>
       </c>
       <c r="K21">
-        <v>1.046812235899769</v>
+        <v>1.035191977937383</v>
       </c>
       <c r="L21">
-        <v>1.050349198164339</v>
+        <v>1.030029579864832</v>
       </c>
       <c r="M21">
-        <v>1.059612810810604</v>
+        <v>1.0351729253829</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038127681205112</v>
+        <v>0.9965607474606079</v>
       </c>
       <c r="D22">
-        <v>1.042764910962246</v>
+        <v>1.01799852334661</v>
       </c>
       <c r="E22">
-        <v>1.046235105281014</v>
+        <v>1.012459778780421</v>
       </c>
       <c r="F22">
-        <v>1.055454425348613</v>
+        <v>1.017334801171665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043708626194142</v>
+        <v>1.047240468219916</v>
       </c>
       <c r="J22">
-        <v>1.044941405153422</v>
+        <v>1.027452638416644</v>
       </c>
       <c r="K22">
-        <v>1.046448073051969</v>
+        <v>1.033221663941158</v>
       </c>
       <c r="L22">
-        <v>1.049905096705745</v>
+        <v>1.027788381116365</v>
       </c>
       <c r="M22">
-        <v>1.059089891695782</v>
+        <v>1.032570500358648</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03846583595878</v>
+        <v>0.998394306644781</v>
       </c>
       <c r="D23">
-        <v>1.043026750945305</v>
+        <v>1.019377805942147</v>
       </c>
       <c r="E23">
-        <v>1.046539159702276</v>
+        <v>1.013988426489618</v>
       </c>
       <c r="F23">
-        <v>1.055799694503093</v>
+        <v>1.019056655181514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043811649217287</v>
+        <v>1.047936196034964</v>
       </c>
       <c r="J23">
-        <v>1.045148273584068</v>
+        <v>1.028544153603752</v>
       </c>
       <c r="K23">
-        <v>1.046641156748115</v>
+        <v>1.034270760536832</v>
       </c>
       <c r="L23">
-        <v>1.050140503803392</v>
+        <v>1.028981256483974</v>
       </c>
       <c r="M23">
-        <v>1.059367061586836</v>
+        <v>1.033955522737875</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039798245167297</v>
+        <v>1.00545046055106</v>
       </c>
       <c r="D24">
-        <v>1.04405836801518</v>
+        <v>1.02469424346104</v>
       </c>
       <c r="E24">
-        <v>1.047738100815093</v>
+        <v>1.019887330655595</v>
       </c>
       <c r="F24">
-        <v>1.05716128062828</v>
+        <v>1.025700235925622</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044214882608919</v>
+        <v>1.050594166075358</v>
       </c>
       <c r="J24">
-        <v>1.045962361461246</v>
+        <v>1.032740301850852</v>
       </c>
       <c r="K24">
-        <v>1.047400547261541</v>
+        <v>1.038301147861224</v>
       </c>
       <c r="L24">
-        <v>1.051067704930761</v>
+        <v>1.033573977155785</v>
       </c>
       <c r="M24">
-        <v>1.06045912026897</v>
+        <v>1.039290573520642</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041346718332811</v>
+        <v>1.013326688093058</v>
       </c>
       <c r="D25">
-        <v>1.045257056903235</v>
+        <v>1.030643582409686</v>
       </c>
       <c r="E25">
-        <v>1.049133299076048</v>
+        <v>1.026502828826062</v>
       </c>
       <c r="F25">
-        <v>1.058746018484095</v>
+        <v>1.033149560545189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044677901947069</v>
+        <v>1.053519755548513</v>
       </c>
       <c r="J25">
-        <v>1.046906334271388</v>
+        <v>1.037413731482773</v>
       </c>
       <c r="K25">
-        <v>1.048280158963487</v>
+        <v>1.042784116791576</v>
       </c>
       <c r="L25">
-        <v>1.052144506836678</v>
+        <v>1.038703196137827</v>
       </c>
       <c r="M25">
-        <v>1.061728139079466</v>
+        <v>1.04525417898093</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
